--- a/2024_7_アンケート集計.xlsx
+++ b/2024_7_アンケート集計.xlsx
@@ -7,12 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="推奨度_契約" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="推奨度_損害" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="今月のコメント_契約" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="今月のコメント_損害" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="グラフ_契約" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="グラフ_損害" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="推奨度" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="今月のコメント" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="過去のコメント" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="推奨度_グラフ" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -150,39 +148,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="5715000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -1817,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1833,818 +1798,13 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>平均値_0702</t>
+          <t>推奨度の理由</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>個数_0702</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>平均値_862</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>個数_862</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>平均値_2310</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>個数_2310</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>平均値_865</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>個数_865</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>平均値_769</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>個数_769</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>平均値_863</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>個数_863</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>平均値_765</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>個数_765</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>平均値_856</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>個数_856</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>平均値_761</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>個数_761</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>平均値_764</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>個数_764</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>45138</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>45169</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>45199</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>9</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>45230</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45260</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>45291</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>9</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>45382</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45412</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>10</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45443</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
+          <t>フリーコメント</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +1818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2683,67 +1843,1257 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>45464.58469907408</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>火災保険について地震のアドバイスがもらえた。</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45462.79287037037</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>担当してくれた営業の方がとても親切で説明もわかりやすく信頼できそうだったから。悪い点今後の対応次第なのでお答えできません。</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>今後も今の担当者が続くことを願う</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45454.79258101852</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>代理店の方が、予算内の良い提案をしてくれる</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45450.66758101852</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>サービス内容もあったら助かるなと思う特約がふえたりしたのは良いところではあるが、他社に無いような特典のようなサービス的なものがあったらいいと思った。</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45446.45972222222</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>信頼できる保険会社だから</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>これからもよろしくお願いします</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45442.62642361111</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>結構細かく試算してもらえるし説明も分かりやすい。</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45442.45980324074</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>担当者が気さくで相談しやすい</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>特にありませんが、ドラレコの結果が違うかなと.可也安全運転してるつもりなのでこれからもよろしくお願いします</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45435.79246527778</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>質問や説明など、とても親切にわかりやすく対応して頂いたからです。</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45429.62644675926</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>担当がいいから</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45424.52013888889</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>対応が丁寧である</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45422.62652777778</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>他社と比較しての違い等がよくわからないから</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45419.62599537037</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>事故対応で被害者への対処が海外の保険会社より優れているから</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>担当者が娘に変わったか、変わらず対応が良かった。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45419.79325231481</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>自分で決めるべき</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>特にありません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45414.75127314815</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>代理店の信頼性が高い。</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45408.58512731481</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>いざトラブルが発生した時に，保険対象がグレイな場合でも前向きにできたけの保証を検討して実行してくれると思います。</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>損害保険や生命保険など社会情勢や考え方便利さなどが様々変化していますのでぜひトップランナーとして代理店や現場社員への勉強をしてください。しかしお客様を第一に考えてください。よろしくお願います。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45404.79289351852</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>補償に対して掛け金が妥当だと思われます。担当の方も急かさず丁寧に話してくださいました。</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45391.58478009259</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>「良い点」⓵商品の内容が分かり易く、保証の範囲及び設定金額は申し込者の年齢からも加入者の年齢にもよるが、十分である。⓶商品申し込みの代理店の担当者の対応（照会事項、説明能力、手際よい手続きなど）が、抜群である。「悪い点」ありません。以上</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45391.50160879629</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>兄も入っている。</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45390.4596875</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>代理店に連絡後対応が早かった。</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45385.79385416667</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>どんな質問にも親切丁寧に答えてくれる</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ありません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45387.41888888889</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>サポートが安心。保険料が、他社より高いと思う。</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>特になしです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45385.5850462963</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>良い点何があった時に直ぐに相談できる。悪い点他の保険会社に安いプランがある。</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>特に無い</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45380.54269675926</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>対応も丁寧で、親身になってくださり、説明も聞きたい事以上に教えてくださり、大変お世話になっておりますm(_ _)m</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大変満足です！</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45374.41875</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>二台目の車両増車の保険見直しだったが、特約を付けても二倍未満の保険料で収まったため。</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45370.75146990741</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>当方、自動車会社を営んでおり、現在東京海上の保険を私自身2本入っており、任意保険に関しては25年来のお付き合いがある東京海上さんの代理店さんに80本程お任せしております。こないだ、東京海上のお客様で車が止まったとのことでPM8時30頃連絡が入り、「これから保険屋さんのレッカーをの願いして、そちらに持ち込んでもよろいしでしょうか？」と言われましたので、入り口に置いてもらえば良いですよと申し上げて電話を切りました。あれ？帰りはどうされるのかな？明日の仕事はどうするのかと思い、再度電話をこちらからしてお聞きしたら、「レンタカーは有れば非常に助かります」との事でしたので、夜8時30分を回ってましたので、保険の代車特約等有るかわからなかったですが、困っているのならこれからはレンタカーは無理だけど、当社の代車なら無料でお貸しいたしますよと言いましたら、「ぜひお願いしたい」と言われもし、間に合うので有れば保険屋さんのレッカーを断れればこちらのレッカーで行けばその上に代車を乗せていけばその場で帰れますよと言いましたら「これから聞いてみます」との事でお待ちしてましたら、「断れましたので、お願いします」との事で、ではこれから参りますと言い現場に向かって、不動車を積み込み、代車をお貸しして引き上げました。それから日産のディーラーに夜中だったので、入り口近くの駐車場に下ろして帰りました。そらから、東京海上より調査リサーチからの調査後入り、なんなんだ？こないだのレッカーを疑われて2週間経ちましたが、これからディーラーにも確認しますとの事です。リサーチの会社の方にもその時間帯の通った道の防犯カメラ等全部探してもらえば、大型車なのでかならず写ってますからと言い要望をこちらからお願いしてます。人助けをして、疑われてとても頭にきています。これで何にもありませんでした（やってるので間違いありませんが）で終わるのなら、代理店さんには私の保険と全て預けてる任意保険を他社さんに入れ替えますと伝えてあります。他、この内容全てのやり取り等を会社のドアに貼り出して、当社のお客様、お取引会社等全ての方にお伝えいたします。そんな、人助けして疑わられる様な会社には紹介したくないです。</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前に、リクルーさんとトラブルがあったが、直ぐに本社から電話が入り事実確認をしてリクルートさんの改善点を改善していただきました。東京海上さんはどうするご対応されるか楽しみです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45370.75105324074</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>事故の時の対応、某保険会社は休日なので休み明けの対応になりますと言われたから。</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45366.79399305556</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>代理店さんの対応がとても良いからです。</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>特にありません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45359.41844907407</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>人それぞれだから。</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>特にありません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45362.7925925926</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>やっぱりリーディングカンパニーですよね！事故や困ったら、東京海上！！アフターが違います！！！</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45359.41895833334</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>今回の能登半島地震の対応のスピードと内容にとても満足した。改めて保健の大切さと御社の有り難さを感じた為。</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>今後ともよろしくお願いします</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45354.70884259259</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>代理店のほけんのアスキットさんの説明がとても分かりやすい。対応が丁寧です。</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>特にありません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45350.4187962963</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>親身に保険内容が良いものとなるよう考えていただいてありがたがった</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45341.54287037037</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>保険料が高い</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45343.58423611111</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>回答、対応が速いと思います。</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>無し</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45342.70959490741</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>全くこちらに落ち度が無く、自宅に駐車中の新車1年程度の車をぶつけられたのに、時価からかけ離れた保険金しか払わない、最低な会社だから。</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永きにわたり個人契約や会社契約、車、貸家、貸しビル等に保険を掛けて来たが、いざ保険金を請求する場面になると悪魔の様な対応をされてしまうと、良好な関係を築く事を拒否されたと感じてしまい、三方良しの精神は無いのかと悲しくなる。もっと顧客に寄り添う対応をして欲しいと思う。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>45342.6262037037</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>対応が良いです🙆</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>特に有りません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>45342.4190162037</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>俊敏な対応と真摯な姿勢で安心出来ました。</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>45341.54331018519</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>事故の時の対応がダメだったので</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>事故の時にわかりやすく対応してほしい</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>45341.46052083333</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>担当者が親切で、もし保険料金の割引対象であればお財布にも優しいため。</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>担当者、保険料金ともに満足しているため。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>45329.79255787037</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>担当者が頼れる人だから。</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>45331.75068287037</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>大手で信頼できるから。飛び石でフロントガラスが割れたときの対応も親切に対応して下さった。</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>特にありません</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>45330.41841435185</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>いつも担当者の対応が迅速、適切なため。</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>45329.58394675926</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>担当の方が飲み友だち。トラブルの時、処理を素早く、してもらえた。</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>特に無し。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>45328.79217592593</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>担当の方が親切だから。</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>頼りにしております。引き続きどうぞ宜しくお願い致します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>45327.79229166666</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ご担当者がとても丁寧親切にご説明いただく。悪い点はありません</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45321.50115740741</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>長く入っています、知人でも有り過去にも事故対応も良かったです。</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>45308.41805555556</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>良い点：保険の内容悪い点：保険料金を高く感じられる</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>特になし。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>45308.70884259259</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ANAのホームページで国内旅行を予約した際に紹介されたため。</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>スマートフォンで契約が完結できれば使い勝手が良くなると思います。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>45307.45930555555</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>既に皆それぞれの保険に入っているから</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>45302.75078703704</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>いつも丁寧に説明して、感謝しています。</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>45287.50122685185</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>対応スタッフの説明が良い</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>45285.41746527778</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">時代に合った保険があるから　</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>45284.58248842593</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>毎年お世話になってます。アスキットの石橋様の対応がすごくよくて。毎年親身になってプランを考えていただき対応が素晴らしいです。</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>問題はなにもございません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>45278.58415509259</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>万一の事故の際に、任せて安心だと思われるから。</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>45275.45929398148</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>期限内で訪問していただき、ありがたいです。</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>特にありません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>45271.50065972222</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>丁寧な説明ですが、他社に比べ保険料が少し高いので。</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>45271.45959490741</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>自分の最適の保障を選べているから</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>45259.79216435185</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>アスキットの田部様は、お気遣いがとても見事で、安心です。</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>45249.4175</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>大企業の安心感他と比べた事がないのでよくわかりません</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>45229.62592592592</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>車以外にも保証がある</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>45229.41799768519</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>業界NO1を続ける事は信頼が有るからです。事故を起こして初めてわかる事が多いが、事故対応はやはりその地域に営業所がある事が大切。確かにネットは会社経費の面で安いが、ネットでは担当に時間外土日は連絡が付かないが、御社の募集人（代理店）さんと大体連絡がついて処理を勧めてもらえるから安心出来る。ビックモーターの件でも利益より、正当性を取った対応は素晴らしいから。</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>45220.66731481482</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>担当の方の人柄が良い</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>45219.66741898148</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>サポートが手厚いから</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>サービスの継続を希望します</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>45216.75072916667</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>安心かな？信頼できる保険会社。ネット保険やTVCMで紹介されている保険とどう違うか？</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>45211.75060185185</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>説明が丁寧で、最低限の補償を教えてくれるため、本当に必要ば保険内容なのかよく検討できたため</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>45210.6675462963</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>長いお付合いのせいか　気心が知れていて　何でも話せるのが一番です</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>特にありません</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>45208.50054398148</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>保険料が高い</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>45206.41770833333</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>お客のニーズをしっかり考えているから。</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>45196.7921412037</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>押し売りみない事もなく親切丁寧な説明をして頂いて気持ち良く接して頂きました。</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>45185.50064814815</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>窓口　担当者の対応&amp;説明が具体的で良かった、</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>45181.66758101852</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>商品の説明を丁寧にお話し下さる。わからない事で質問すると、分かるように説明されます。いつも明るく元気に接客されて朗らかさを心がけておられます。私の代理店の方はお薦めできると思います。</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>貴社は、日本の損保会社のナンバーワンでおられると思っております。顧客の思いを汲んで頂き、それに添うように対応して頂いて納得する解決をして頂いた経験がございます。その節は真にお世話様になりました。改めて心より感謝申し上げます。ありがとうございます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>45174.58418981481</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>更新の時内容を見直してくれて色々提案して頂いてありがたかったから今までと同じ内容でいいですよね。って事で終わらせなかったので悪い点は特になかったです</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>45173.62583333333</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>商品の説明内容が明瞭簡潔です。最近は少し増えましたがもう少し印象に残るコマ-シャルを企画してほしいです。</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>特にありません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>45167.79232638889</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>頼りになる。</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>45163.75047453704</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>丁寧な説明してくださる。</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>45160.54210648148</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>他社との優位点があまりない。</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>45148.66748842593</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>事故時の対応及び手続き完了までの、対応が早くて良いです。</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>45134.41716435185</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>長年の付き合いもありますが、代理店を含めて親身になって相談に乗って貰っています。</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>45127.50045138889</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>万が一の時に安心できるから</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>45127.77002314815</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>対応が良い</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>45119.62561342592</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>矢張りインターネットが強いですね、安い商品が強いですねもう少し頑張って下さい。</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>45114.70902777778</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>保険は勧められて入るものではなく、何が不安なのか何に備えなくてはいけないのか自分で決めるものだから</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>45114.62563657408</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>担当の方が親身になって話をしてくれ、こちらに有利な提案をしてくれるからです。</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>とてもお世話になって、感謝しています。現状に充分満足しています。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>送信日</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>推奨度の理由</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>フリーコメント</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
